--- a/temp/papersizes.xlsx
+++ b/temp/papersizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Code/fotorex/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D62B98AC-B54D-BC47-95E8-64D2D534D114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82195D16-7D77-7145-A6A6-00F0BD008348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34280" yWindow="2000" windowWidth="28040" windowHeight="17040" xr2:uid="{7C5C76C4-2343-5B48-98C0-3EC474DCC640}"/>
   </bookViews>
@@ -540,8 +540,8 @@
         <v>46.8</v>
       </c>
       <c r="G1" t="str">
-        <f>"['id'=&gt;" &amp;A1&amp; ",'code'=&gt;'" &amp;B1&amp; "', 'width_in_millimetres'=&gt;"&amp;C1&amp;", 'height_in_millimetres'=&gt;"&amp;D1&amp; "', 'width_in_inches'=&gt;"&amp;E1&amp;", 'height_in_inches=&gt;"&amp;F1&amp;", ], "</f>
-        <v xml:space="preserve">['id'=&gt;1,'code'=&gt;'A0', 'width_in_millimetres'=&gt;841, 'height_in_millimetres'=&gt;1189', 'width_in_inches'=&gt;33.1, 'height_in_inches=&gt;46.8, ], </v>
+        <f>"['id'=&gt;" &amp;A1&amp; ",'code'=&gt;'" &amp;B1&amp; "', 'width_in_millimetres'=&gt;"&amp;C1&amp;", 'height_in_millimetres'=&gt;"&amp;D1&amp; ", 'width_in_inches'=&gt;"&amp;E1&amp;", 'height_in_inches'=&gt;"&amp;F1&amp;", ], "</f>
+        <v xml:space="preserve">['id'=&gt;1,'code'=&gt;'A0', 'width_in_millimetres'=&gt;841, 'height_in_millimetres'=&gt;1189, 'width_in_inches'=&gt;33.1, 'height_in_inches'=&gt;46.8, ], </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -564,8 +564,8 @@
         <v>33.1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G33" si="0">"['id'=&gt;" &amp;A2&amp; ",'code'=&gt;'" &amp;B2&amp; "', 'width_in_millimetres'=&gt;"&amp;C2&amp;", 'height_in_millimetres'=&gt;"&amp;D2&amp; "', 'width_in_inches'=&gt;"&amp;E2&amp;", 'height_in_inches=&gt;"&amp;F2&amp;", ], "</f>
-        <v xml:space="preserve">['id'=&gt;2,'code'=&gt;'A1', 'width_in_millimetres'=&gt;594, 'height_in_millimetres'=&gt;841', 'width_in_inches'=&gt;23.4, 'height_in_inches=&gt;33.1, ], </v>
+        <f t="shared" ref="G2:G33" si="0">"['id'=&gt;" &amp;A2&amp; ",'code'=&gt;'" &amp;B2&amp; "', 'width_in_millimetres'=&gt;"&amp;C2&amp;", 'height_in_millimetres'=&gt;"&amp;D2&amp; ", 'width_in_inches'=&gt;"&amp;E2&amp;", 'height_in_inches'=&gt;"&amp;F2&amp;", ], "</f>
+        <v xml:space="preserve">['id'=&gt;2,'code'=&gt;'A1', 'width_in_millimetres'=&gt;594, 'height_in_millimetres'=&gt;841, 'width_in_inches'=&gt;23.4, 'height_in_inches'=&gt;33.1, ], </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;3,'code'=&gt;'A2', 'width_in_millimetres'=&gt;420, 'height_in_millimetres'=&gt;594', 'width_in_inches'=&gt;16.5, 'height_in_inches=&gt;23.4, ], </v>
+        <v xml:space="preserve">['id'=&gt;3,'code'=&gt;'A2', 'width_in_millimetres'=&gt;420, 'height_in_millimetres'=&gt;594, 'width_in_inches'=&gt;16.5, 'height_in_inches'=&gt;23.4, ], </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;4,'code'=&gt;'A3', 'width_in_millimetres'=&gt;297, 'height_in_millimetres'=&gt;420', 'width_in_inches'=&gt;11.7, 'height_in_inches=&gt;16.5, ], </v>
+        <v xml:space="preserve">['id'=&gt;4,'code'=&gt;'A3', 'width_in_millimetres'=&gt;297, 'height_in_millimetres'=&gt;420, 'width_in_inches'=&gt;11.7, 'height_in_inches'=&gt;16.5, ], </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -637,7 +637,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;5,'code'=&gt;'A4', 'width_in_millimetres'=&gt;210, 'height_in_millimetres'=&gt;297', 'width_in_inches'=&gt;8.3, 'height_in_inches=&gt;11.7, ], </v>
+        <v xml:space="preserve">['id'=&gt;5,'code'=&gt;'A4', 'width_in_millimetres'=&gt;210, 'height_in_millimetres'=&gt;297, 'width_in_inches'=&gt;8.3, 'height_in_inches'=&gt;11.7, ], </v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;6,'code'=&gt;'A5', 'width_in_millimetres'=&gt;148, 'height_in_millimetres'=&gt;210', 'width_in_inches'=&gt;5.8, 'height_in_inches=&gt;8.3, ], </v>
+        <v xml:space="preserve">['id'=&gt;6,'code'=&gt;'A5', 'width_in_millimetres'=&gt;148, 'height_in_millimetres'=&gt;210, 'width_in_inches'=&gt;5.8, 'height_in_inches'=&gt;8.3, ], </v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;7,'code'=&gt;'A6', 'width_in_millimetres'=&gt;105, 'height_in_millimetres'=&gt;148', 'width_in_inches'=&gt;4.1, 'height_in_inches=&gt;5.8, ], </v>
+        <v xml:space="preserve">['id'=&gt;7,'code'=&gt;'A6', 'width_in_millimetres'=&gt;105, 'height_in_millimetres'=&gt;148, 'width_in_inches'=&gt;4.1, 'height_in_inches'=&gt;5.8, ], </v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;8,'code'=&gt;'A7', 'width_in_millimetres'=&gt;74, 'height_in_millimetres'=&gt;105', 'width_in_inches'=&gt;2.9, 'height_in_inches=&gt;4.1, ], </v>
+        <v xml:space="preserve">['id'=&gt;8,'code'=&gt;'A7', 'width_in_millimetres'=&gt;74, 'height_in_millimetres'=&gt;105, 'width_in_inches'=&gt;2.9, 'height_in_inches'=&gt;4.1, ], </v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -733,7 +733,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;9,'code'=&gt;'A8', 'width_in_millimetres'=&gt;52, 'height_in_millimetres'=&gt;74', 'width_in_inches'=&gt;2, 'height_in_inches=&gt;2.9, ], </v>
+        <v xml:space="preserve">['id'=&gt;9,'code'=&gt;'A8', 'width_in_millimetres'=&gt;52, 'height_in_millimetres'=&gt;74, 'width_in_inches'=&gt;2, 'height_in_inches'=&gt;2.9, ], </v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;10,'code'=&gt;'A9', 'width_in_millimetres'=&gt;37, 'height_in_millimetres'=&gt;52', 'width_in_inches'=&gt;1.5, 'height_in_inches=&gt;2, ], </v>
+        <v xml:space="preserve">['id'=&gt;10,'code'=&gt;'A9', 'width_in_millimetres'=&gt;37, 'height_in_millimetres'=&gt;52, 'width_in_inches'=&gt;1.5, 'height_in_inches'=&gt;2, ], </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;11,'code'=&gt;'A10', 'width_in_millimetres'=&gt;26, 'height_in_millimetres'=&gt;37', 'width_in_inches'=&gt;1, 'height_in_inches=&gt;1.5, ], </v>
+        <v xml:space="preserve">['id'=&gt;11,'code'=&gt;'A10', 'width_in_millimetres'=&gt;26, 'height_in_millimetres'=&gt;37, 'width_in_inches'=&gt;1, 'height_in_inches'=&gt;1.5, ], </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;12,'code'=&gt;'B0', 'width_in_millimetres'=&gt;1000, 'height_in_millimetres'=&gt;1414', 'width_in_inches'=&gt;39.4, 'height_in_inches=&gt;55.7, ], </v>
+        <v xml:space="preserve">['id'=&gt;12,'code'=&gt;'B0', 'width_in_millimetres'=&gt;1000, 'height_in_millimetres'=&gt;1414, 'width_in_inches'=&gt;39.4, 'height_in_inches'=&gt;55.7, ], </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;13,'code'=&gt;'B1', 'width_in_millimetres'=&gt;707, 'height_in_millimetres'=&gt;1000', 'width_in_inches'=&gt;27.8, 'height_in_inches=&gt;39.4, ], </v>
+        <v xml:space="preserve">['id'=&gt;13,'code'=&gt;'B1', 'width_in_millimetres'=&gt;707, 'height_in_millimetres'=&gt;1000, 'width_in_inches'=&gt;27.8, 'height_in_inches'=&gt;39.4, ], </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;14,'code'=&gt;'B2', 'width_in_millimetres'=&gt;500, 'height_in_millimetres'=&gt;707', 'width_in_inches'=&gt;19.7, 'height_in_inches=&gt;27.8, ], </v>
+        <v xml:space="preserve">['id'=&gt;14,'code'=&gt;'B2', 'width_in_millimetres'=&gt;500, 'height_in_millimetres'=&gt;707, 'width_in_inches'=&gt;19.7, 'height_in_inches'=&gt;27.8, ], </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;15,'code'=&gt;'B3', 'width_in_millimetres'=&gt;353, 'height_in_millimetres'=&gt;500', 'width_in_inches'=&gt;13.9, 'height_in_inches=&gt;19.7, ], </v>
+        <v xml:space="preserve">['id'=&gt;15,'code'=&gt;'B3', 'width_in_millimetres'=&gt;353, 'height_in_millimetres'=&gt;500, 'width_in_inches'=&gt;13.9, 'height_in_inches'=&gt;19.7, ], </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -901,7 +901,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;16,'code'=&gt;'B4', 'width_in_millimetres'=&gt;250, 'height_in_millimetres'=&gt;353', 'width_in_inches'=&gt;9.8, 'height_in_inches=&gt;13.9, ], </v>
+        <v xml:space="preserve">['id'=&gt;16,'code'=&gt;'B4', 'width_in_millimetres'=&gt;250, 'height_in_millimetres'=&gt;353, 'width_in_inches'=&gt;9.8, 'height_in_inches'=&gt;13.9, ], </v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;17,'code'=&gt;'B5', 'width_in_millimetres'=&gt;176, 'height_in_millimetres'=&gt;250', 'width_in_inches'=&gt;6.9, 'height_in_inches=&gt;9.8, ], </v>
+        <v xml:space="preserve">['id'=&gt;17,'code'=&gt;'B5', 'width_in_millimetres'=&gt;176, 'height_in_millimetres'=&gt;250, 'width_in_inches'=&gt;6.9, 'height_in_inches'=&gt;9.8, ], </v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;18,'code'=&gt;'B6', 'width_in_millimetres'=&gt;125, 'height_in_millimetres'=&gt;176', 'width_in_inches'=&gt;4.9, 'height_in_inches=&gt;6.9, ], </v>
+        <v xml:space="preserve">['id'=&gt;18,'code'=&gt;'B6', 'width_in_millimetres'=&gt;125, 'height_in_millimetres'=&gt;176, 'width_in_inches'=&gt;4.9, 'height_in_inches'=&gt;6.9, ], </v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;19,'code'=&gt;'B7', 'width_in_millimetres'=&gt;88, 'height_in_millimetres'=&gt;125', 'width_in_inches'=&gt;3.5, 'height_in_inches=&gt;4.9, ], </v>
+        <v xml:space="preserve">['id'=&gt;19,'code'=&gt;'B7', 'width_in_millimetres'=&gt;88, 'height_in_millimetres'=&gt;125, 'width_in_inches'=&gt;3.5, 'height_in_inches'=&gt;4.9, ], </v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;20,'code'=&gt;'B8', 'width_in_millimetres'=&gt;62, 'height_in_millimetres'=&gt;88', 'width_in_inches'=&gt;2.4, 'height_in_inches=&gt;3.5, ], </v>
+        <v xml:space="preserve">['id'=&gt;20,'code'=&gt;'B8', 'width_in_millimetres'=&gt;62, 'height_in_millimetres'=&gt;88, 'width_in_inches'=&gt;2.4, 'height_in_inches'=&gt;3.5, ], </v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;21,'code'=&gt;'B9', 'width_in_millimetres'=&gt;44, 'height_in_millimetres'=&gt;62', 'width_in_inches'=&gt;1.7, 'height_in_inches=&gt;2.4, ], </v>
+        <v xml:space="preserve">['id'=&gt;21,'code'=&gt;'B9', 'width_in_millimetres'=&gt;44, 'height_in_millimetres'=&gt;62, 'width_in_inches'=&gt;1.7, 'height_in_inches'=&gt;2.4, ], </v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;22,'code'=&gt;'B10', 'width_in_millimetres'=&gt;31, 'height_in_millimetres'=&gt;44', 'width_in_inches'=&gt;1.2, 'height_in_inches=&gt;1.7, ], </v>
+        <v xml:space="preserve">['id'=&gt;22,'code'=&gt;'B10', 'width_in_millimetres'=&gt;31, 'height_in_millimetres'=&gt;44, 'width_in_inches'=&gt;1.2, 'height_in_inches'=&gt;1.7, ], </v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;23,'code'=&gt;'C0', 'width_in_millimetres'=&gt;917, 'height_in_millimetres'=&gt;1297', 'width_in_inches'=&gt;36.1, 'height_in_inches=&gt;51.5, ], </v>
+        <v xml:space="preserve">['id'=&gt;23,'code'=&gt;'C0', 'width_in_millimetres'=&gt;917, 'height_in_millimetres'=&gt;1297, 'width_in_inches'=&gt;36.1, 'height_in_inches'=&gt;51.5, ], </v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;24,'code'=&gt;'C1', 'width_in_millimetres'=&gt;648, 'height_in_millimetres'=&gt;917', 'width_in_inches'=&gt;25.5, 'height_in_inches=&gt;36.1, ], </v>
+        <v xml:space="preserve">['id'=&gt;24,'code'=&gt;'C1', 'width_in_millimetres'=&gt;648, 'height_in_millimetres'=&gt;917, 'width_in_inches'=&gt;25.5, 'height_in_inches'=&gt;36.1, ], </v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;25,'code'=&gt;'C2', 'width_in_millimetres'=&gt;458, 'height_in_millimetres'=&gt;648', 'width_in_inches'=&gt;18, 'height_in_inches=&gt;25.5, ], </v>
+        <v xml:space="preserve">['id'=&gt;25,'code'=&gt;'C2', 'width_in_millimetres'=&gt;458, 'height_in_millimetres'=&gt;648, 'width_in_inches'=&gt;18, 'height_in_inches'=&gt;25.5, ], </v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;26,'code'=&gt;'C3', 'width_in_millimetres'=&gt;324, 'height_in_millimetres'=&gt;458', 'width_in_inches'=&gt;12.8, 'height_in_inches=&gt;18, ], </v>
+        <v xml:space="preserve">['id'=&gt;26,'code'=&gt;'C3', 'width_in_millimetres'=&gt;324, 'height_in_millimetres'=&gt;458, 'width_in_inches'=&gt;12.8, 'height_in_inches'=&gt;18, ], </v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;27,'code'=&gt;'C4', 'width_in_millimetres'=&gt;229, 'height_in_millimetres'=&gt;324', 'width_in_inches'=&gt;9, 'height_in_inches=&gt;12.8, ], </v>
+        <v xml:space="preserve">['id'=&gt;27,'code'=&gt;'C4', 'width_in_millimetres'=&gt;229, 'height_in_millimetres'=&gt;324, 'width_in_inches'=&gt;9, 'height_in_inches'=&gt;12.8, ], </v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;28,'code'=&gt;'C5', 'width_in_millimetres'=&gt;162, 'height_in_millimetres'=&gt;229', 'width_in_inches'=&gt;6.4, 'height_in_inches=&gt;9, ], </v>
+        <v xml:space="preserve">['id'=&gt;28,'code'=&gt;'C5', 'width_in_millimetres'=&gt;162, 'height_in_millimetres'=&gt;229, 'width_in_inches'=&gt;6.4, 'height_in_inches'=&gt;9, ], </v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;29,'code'=&gt;'C6', 'width_in_millimetres'=&gt;114, 'height_in_millimetres'=&gt;162', 'width_in_inches'=&gt;4.5, 'height_in_inches=&gt;6.4, ], </v>
+        <v xml:space="preserve">['id'=&gt;29,'code'=&gt;'C6', 'width_in_millimetres'=&gt;114, 'height_in_millimetres'=&gt;162, 'width_in_inches'=&gt;4.5, 'height_in_inches'=&gt;6.4, ], </v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;30,'code'=&gt;'C7', 'width_in_millimetres'=&gt;81, 'height_in_millimetres'=&gt;114', 'width_in_inches'=&gt;3.2, 'height_in_inches=&gt;4.5, ], </v>
+        <v xml:space="preserve">['id'=&gt;30,'code'=&gt;'C7', 'width_in_millimetres'=&gt;81, 'height_in_millimetres'=&gt;114, 'width_in_inches'=&gt;3.2, 'height_in_inches'=&gt;4.5, ], </v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;31,'code'=&gt;'C8', 'width_in_millimetres'=&gt;57, 'height_in_millimetres'=&gt;81', 'width_in_inches'=&gt;2.2, 'height_in_inches=&gt;3.2, ], </v>
+        <v xml:space="preserve">['id'=&gt;31,'code'=&gt;'C8', 'width_in_millimetres'=&gt;57, 'height_in_millimetres'=&gt;81, 'width_in_inches'=&gt;2.2, 'height_in_inches'=&gt;3.2, ], </v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;32,'code'=&gt;'C9', 'width_in_millimetres'=&gt;40, 'height_in_millimetres'=&gt;57', 'width_in_inches'=&gt;1.6, 'height_in_inches=&gt;2.2, ], </v>
+        <v xml:space="preserve">['id'=&gt;32,'code'=&gt;'C9', 'width_in_millimetres'=&gt;40, 'height_in_millimetres'=&gt;57, 'width_in_inches'=&gt;1.6, 'height_in_inches'=&gt;2.2, ], </v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1309,10 +1309,11 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">['id'=&gt;33,'code'=&gt;'C10', 'width_in_millimetres'=&gt;28, 'height_in_millimetres'=&gt;40', 'width_in_inches'=&gt;1.1, 'height_in_inches=&gt;1.6, ], </v>
+        <v xml:space="preserve">['id'=&gt;33,'code'=&gt;'C10', 'width_in_millimetres'=&gt;28, 'height_in_millimetres'=&gt;40, 'width_in_inches'=&gt;1.1, 'height_in_inches'=&gt;1.6, ], </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>